--- a/Workshop_Day1/Data/safety_incidents.xlsx
+++ b/Workshop_Day1/Data/safety_incidents.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sincl\Documents\MaughanLab_Active\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FACE7-7EC6-4DB4-9659-A47515DECCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6046D697-AF98-46A6-AC30-79362A02C6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="5160" windowWidth="20730" windowHeight="11040" xr2:uid="{F07A320D-CB1C-43B0-8D31-76F3DEAAE245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F07A320D-CB1C-43B0-8D31-76F3DEAAE245}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="January" sheetId="1" r:id="rId1"/>
+    <sheet name="February" sheetId="4" r:id="rId2"/>
+    <sheet name="March" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +209,24 @@
   </si>
   <si>
     <t>Melting</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Abdomen</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Slip/trip</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Trunk</t>
   </si>
 </sst>
 </file>
@@ -603,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0883DB-606E-41FA-B26C-9B11439ED381}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,4 +1307,1233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFDF5A6-31D4-4F2D-A790-3D796F22F445}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2"/>
+    <col min="6" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="15.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43864</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43870</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43870</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43873</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43874</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43874</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43877</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="4">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="4">
+        <v>4969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC261019-E02C-4CB6-BC08-9B729A3B7C9B}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2"/>
+    <col min="6" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="15.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43891</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43893</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43893</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>40243</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43896</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43897</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43902</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43907</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="K19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>